--- a/HW3/node_strength_degree.xlsx
+++ b/HW3/node_strength_degree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yc/CEE598_Globalization_of_Water/HW3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C910F16-91E0-D747-AAC3-270E1F67AFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F7680103-502E-DE41-BF62-C238DF368993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580"/>
+    <workbookView xWindow="1920" yWindow="500" windowWidth="34560" windowHeight="21100"/>
   </bookViews>
   <sheets>
     <sheet name="node_strength_degree" sheetId="1" r:id="rId1"/>
@@ -1848,7 +1848,6 @@
       <c:valAx>
         <c:axId val="23209792"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2857,7 +2856,7 @@
   <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
